--- a/docs/choosing_triplets.xlsx
+++ b/docs/choosing_triplets.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="18">
   <si>
     <t>simulation name</t>
   </si>
@@ -91,33 +91,6 @@
   </si>
   <si>
     <t>balancing</t>
-  </si>
-  <si>
-    <t>query_flipped</t>
-  </si>
-  <si>
-    <t>ref1_flipped</t>
-  </si>
-  <si>
-    <t>ref2_flipped</t>
-  </si>
-  <si>
-    <t>dist_query_ref1_flipped</t>
-  </si>
-  <si>
-    <t>dist_query_ref2_flipped</t>
-  </si>
-  <si>
-    <t>dist_ref1_ref2_flipped</t>
-  </si>
-  <si>
-    <t>abs_dist_query_ref1_flipped</t>
-  </si>
-  <si>
-    <t>abs_dist_query_ref2_flipped</t>
-  </si>
-  <si>
-    <t>abs_dist_ref1_ref2_flipped</t>
   </si>
 </sst>
 </file>
@@ -586,11 +559,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U94"/>
+  <dimension ref="A1:L94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
+      <selection pane="bottomLeft" activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,13 +575,11 @@
     <col min="6" max="7" width="9.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="23.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="8"/>
+    <col min="11" max="12" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -645,35 +616,8 @@
       <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -718,57 +662,21 @@
       <c r="L2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M2">
-        <f>((118-30)/2+30)*2-E2</f>
-        <v>110</v>
-      </c>
-      <c r="N2">
-        <f>((118-30)/2+30)*2-F2</f>
-        <v>118</v>
-      </c>
-      <c r="O2">
-        <f>((118-30)/2+30)*2-G2</f>
-        <v>102</v>
-      </c>
-      <c r="P2" s="15">
-        <f>M2-N2</f>
-        <v>-8</v>
-      </c>
-      <c r="Q2" s="15">
-        <f>M2-N2</f>
-        <v>-8</v>
-      </c>
-      <c r="R2" s="16">
-        <f>N2-O2</f>
-        <v>16</v>
-      </c>
-      <c r="S2">
-        <f>ABS(P2)</f>
-        <v>8</v>
-      </c>
-      <c r="T2">
-        <f t="shared" ref="T2:U2" si="0">ABS(Q2)</f>
-        <v>8</v>
-      </c>
-      <c r="U2">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="15">
-        <f t="shared" ref="B3:B28" si="1">E3-F3</f>
+        <f t="shared" ref="B3:B28" si="0">E3-F3</f>
         <v>8</v>
       </c>
       <c r="C3" s="15">
-        <f t="shared" ref="C3:C28" si="2">E3-G3</f>
+        <f t="shared" ref="C3:C28" si="1">E3-G3</f>
         <v>-8</v>
       </c>
       <c r="D3" s="16">
-        <f t="shared" ref="D3:D28" si="3">F3-G3</f>
+        <f t="shared" ref="D3:D28" si="2">F3-G3</f>
         <v>-16</v>
       </c>
       <c r="E3" s="5">
@@ -783,15 +691,15 @@
         <v>86</v>
       </c>
       <c r="H3" s="5">
-        <f t="shared" ref="H3:H28" si="4">ABS(B3)</f>
+        <f t="shared" ref="H3:H28" si="3">ABS(B3)</f>
         <v>8</v>
       </c>
       <c r="I3" s="5">
-        <f t="shared" ref="I3:I28" si="5">ABS(C3)</f>
+        <f t="shared" ref="I3:I28" si="4">ABS(C3)</f>
         <v>8</v>
       </c>
       <c r="J3" s="5">
-        <f t="shared" ref="J3:J28" si="6">ABS(D3)</f>
+        <f t="shared" ref="J3:J28" si="5">ABS(D3)</f>
         <v>16</v>
       </c>
       <c r="K3" s="10" t="s">
@@ -800,57 +708,21 @@
       <c r="L3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M3">
-        <f>((118-30)/2+30)*2-E3</f>
-        <v>70</v>
-      </c>
-      <c r="N3">
-        <f>((118-30)/2+30)*2-F3</f>
-        <v>78</v>
-      </c>
-      <c r="O3">
-        <f>((118-30)/2+30)*2-G3</f>
-        <v>62</v>
-      </c>
-      <c r="P3" s="15">
-        <f t="shared" ref="P3:P38" si="7">M3-N3</f>
-        <v>-8</v>
-      </c>
-      <c r="Q3" s="15">
-        <f t="shared" ref="Q3:Q38" si="8">M3-N3</f>
-        <v>-8</v>
-      </c>
-      <c r="R3" s="16">
-        <f t="shared" ref="R3:R38" si="9">N3-O3</f>
-        <v>16</v>
-      </c>
-      <c r="S3">
-        <f t="shared" ref="S3:S38" si="10">ABS(P3)</f>
-        <v>8</v>
-      </c>
-      <c r="T3">
-        <f t="shared" ref="T3:T38" si="11">ABS(Q3)</f>
-        <v>8</v>
-      </c>
-      <c r="U3">
-        <f t="shared" ref="U3:U38" si="12">ABS(R3)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="15">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C4" s="15">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="C4" s="15">
+        <v>-8</v>
+      </c>
+      <c r="D4" s="16">
         <f t="shared" si="2"/>
-        <v>-8</v>
-      </c>
-      <c r="D4" s="16">
-        <f t="shared" si="3"/>
         <v>-16</v>
       </c>
       <c r="E4" s="5">
@@ -865,15 +737,15 @@
         <v>118</v>
       </c>
       <c r="H4" s="5">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="I4" s="5">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="I4" s="5">
+      <c r="J4" s="5">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="J4" s="5">
-        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="K4" s="10" t="s">
@@ -882,57 +754,21 @@
       <c r="L4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M4">
-        <f>((118-30)/2+30)*2-E4</f>
-        <v>38</v>
-      </c>
-      <c r="N4">
-        <f>((118-30)/2+30)*2-F4</f>
-        <v>46</v>
-      </c>
-      <c r="O4">
-        <f>((118-30)/2+30)*2-G4</f>
-        <v>30</v>
-      </c>
-      <c r="P4" s="15">
-        <f t="shared" si="7"/>
-        <v>-8</v>
-      </c>
-      <c r="Q4" s="15">
-        <f t="shared" si="8"/>
-        <v>-8</v>
-      </c>
-      <c r="R4" s="16">
-        <f t="shared" si="9"/>
-        <v>16</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="U4">
-        <f t="shared" si="12"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C5" s="17">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="C5" s="17">
+        <v>-16</v>
+      </c>
+      <c r="D5" s="18">
         <f t="shared" si="2"/>
-        <v>-16</v>
-      </c>
-      <c r="D5" s="18">
-        <f t="shared" si="3"/>
         <v>-32</v>
       </c>
       <c r="E5" s="5">
@@ -947,15 +783,15 @@
         <v>62</v>
       </c>
       <c r="H5" s="5">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="I5" s="5">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="I5" s="5">
+      <c r="J5" s="5">
         <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-      <c r="J5" s="5">
-        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="K5" s="10" t="s">
@@ -964,57 +800,21 @@
       <c r="L5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M5">
-        <f>((118-30)/2+30)*2-E5</f>
-        <v>102</v>
-      </c>
-      <c r="N5">
-        <f>((118-30)/2+30)*2-F5</f>
-        <v>118</v>
-      </c>
-      <c r="O5">
-        <f>((118-30)/2+30)*2-G5</f>
-        <v>86</v>
-      </c>
-      <c r="P5" s="15">
-        <f t="shared" si="7"/>
-        <v>-16</v>
-      </c>
-      <c r="Q5" s="15">
-        <f t="shared" si="8"/>
-        <v>-16</v>
-      </c>
-      <c r="R5" s="16">
-        <f t="shared" si="9"/>
-        <v>32</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="10"/>
-        <v>16</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="11"/>
-        <v>16</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="12"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C6" s="17">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="C6" s="17">
+        <v>-16</v>
+      </c>
+      <c r="D6" s="18">
         <f t="shared" si="2"/>
-        <v>-16</v>
-      </c>
-      <c r="D6" s="18">
-        <f t="shared" si="3"/>
         <v>-32</v>
       </c>
       <c r="E6" s="5">
@@ -1029,15 +829,15 @@
         <v>94</v>
       </c>
       <c r="H6" s="5">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="I6" s="5">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="I6" s="5">
+      <c r="J6" s="5">
         <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-      <c r="J6" s="5">
-        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="K6" s="10" t="s">
@@ -1046,57 +846,21 @@
       <c r="L6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M6">
-        <f>((118-30)/2+30)*2-E6</f>
-        <v>70</v>
-      </c>
-      <c r="N6">
-        <f>((118-30)/2+30)*2-F6</f>
-        <v>86</v>
-      </c>
-      <c r="O6">
-        <f>((118-30)/2+30)*2-G6</f>
-        <v>54</v>
-      </c>
-      <c r="P6" s="15">
-        <f t="shared" si="7"/>
-        <v>-16</v>
-      </c>
-      <c r="Q6" s="15">
-        <f t="shared" si="8"/>
-        <v>-16</v>
-      </c>
-      <c r="R6" s="16">
-        <f t="shared" si="9"/>
-        <v>32</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="10"/>
-        <v>16</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="11"/>
-        <v>16</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="12"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C7" s="17">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="C7" s="17">
+        <v>-16</v>
+      </c>
+      <c r="D7" s="18">
         <f t="shared" si="2"/>
-        <v>-16</v>
-      </c>
-      <c r="D7" s="18">
-        <f t="shared" si="3"/>
         <v>-32</v>
       </c>
       <c r="E7" s="5">
@@ -1111,15 +875,15 @@
         <v>118</v>
       </c>
       <c r="H7" s="5">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="I7" s="5">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="I7" s="5">
+      <c r="J7" s="5">
         <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-      <c r="J7" s="5">
-        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="K7" s="10" t="s">
@@ -1128,57 +892,21 @@
       <c r="L7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M7">
-        <f>((118-30)/2+30)*2-E7</f>
-        <v>46</v>
-      </c>
-      <c r="N7">
-        <f>((118-30)/2+30)*2-F7</f>
-        <v>62</v>
-      </c>
-      <c r="O7">
-        <f>((118-30)/2+30)*2-G7</f>
-        <v>30</v>
-      </c>
-      <c r="P7" s="15">
-        <f t="shared" si="7"/>
-        <v>-16</v>
-      </c>
-      <c r="Q7" s="15">
-        <f t="shared" si="8"/>
-        <v>-16</v>
-      </c>
-      <c r="R7" s="16">
-        <f t="shared" si="9"/>
-        <v>32</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="10"/>
-        <v>16</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="11"/>
-        <v>16</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="12"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="19">
-        <f t="shared" ref="B8" si="13">E8-F8</f>
+        <f t="shared" ref="B8" si="6">E8-F8</f>
         <v>24</v>
       </c>
       <c r="C8" s="19">
-        <f t="shared" ref="C8" si="14">E8-G8</f>
+        <f t="shared" ref="C8" si="7">E8-G8</f>
         <v>-24</v>
       </c>
       <c r="D8" s="20">
-        <f t="shared" ref="D8" si="15">F8-G8</f>
+        <f t="shared" ref="D8" si="8">F8-G8</f>
         <v>-48</v>
       </c>
       <c r="E8" s="5">
@@ -1193,15 +921,15 @@
         <v>78</v>
       </c>
       <c r="H8" s="5">
-        <f t="shared" ref="H8" si="16">ABS(B8)</f>
+        <f t="shared" ref="H8" si="9">ABS(B8)</f>
         <v>24</v>
       </c>
       <c r="I8" s="5">
-        <f t="shared" ref="I8" si="17">ABS(C8)</f>
+        <f t="shared" ref="I8" si="10">ABS(C8)</f>
         <v>24</v>
       </c>
       <c r="J8" s="5">
-        <f t="shared" ref="J8" si="18">ABS(D8)</f>
+        <f t="shared" ref="J8" si="11">ABS(D8)</f>
         <v>48</v>
       </c>
       <c r="K8" s="10" t="s">
@@ -1210,57 +938,21 @@
       <c r="L8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M8">
-        <f>((118-30)/2+30)*2-E8</f>
-        <v>94</v>
-      </c>
-      <c r="N8">
-        <f>((118-30)/2+30)*2-F8</f>
-        <v>118</v>
-      </c>
-      <c r="O8">
-        <f>((118-30)/2+30)*2-G8</f>
-        <v>70</v>
-      </c>
-      <c r="P8" s="15">
-        <f t="shared" si="7"/>
-        <v>-24</v>
-      </c>
-      <c r="Q8" s="15">
-        <f t="shared" si="8"/>
-        <v>-24</v>
-      </c>
-      <c r="R8" s="16">
-        <f t="shared" si="9"/>
-        <v>48</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="10"/>
-        <v>24</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="11"/>
-        <v>24</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="12"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="19">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C9" s="19">
         <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="C9" s="19">
+        <v>-24</v>
+      </c>
+      <c r="D9" s="20">
         <f t="shared" si="2"/>
-        <v>-24</v>
-      </c>
-      <c r="D9" s="20">
-        <f t="shared" si="3"/>
         <v>-48</v>
       </c>
       <c r="E9" s="5">
@@ -1275,15 +967,15 @@
         <v>102</v>
       </c>
       <c r="H9" s="5">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="I9" s="5">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="I9" s="5">
+      <c r="J9" s="5">
         <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-      <c r="J9" s="5">
-        <f t="shared" si="6"/>
         <v>48</v>
       </c>
       <c r="K9" s="10" t="s">
@@ -1292,57 +984,21 @@
       <c r="L9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M9">
-        <f>((118-30)/2+30)*2-E9</f>
-        <v>70</v>
-      </c>
-      <c r="N9">
-        <f>((118-30)/2+30)*2-F9</f>
-        <v>94</v>
-      </c>
-      <c r="O9">
-        <f>((118-30)/2+30)*2-G9</f>
-        <v>46</v>
-      </c>
-      <c r="P9" s="15">
-        <f t="shared" si="7"/>
-        <v>-24</v>
-      </c>
-      <c r="Q9" s="15">
-        <f t="shared" si="8"/>
-        <v>-24</v>
-      </c>
-      <c r="R9" s="16">
-        <f t="shared" si="9"/>
-        <v>48</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="10"/>
-        <v>24</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="11"/>
-        <v>24</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="12"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="19">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C10" s="19">
         <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="C10" s="19">
+        <v>-24</v>
+      </c>
+      <c r="D10" s="20">
         <f t="shared" si="2"/>
-        <v>-24</v>
-      </c>
-      <c r="D10" s="20">
-        <f t="shared" si="3"/>
         <v>-48</v>
       </c>
       <c r="E10" s="5">
@@ -1357,15 +1013,15 @@
         <v>118</v>
       </c>
       <c r="H10" s="5">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="I10" s="5">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="I10" s="5">
+      <c r="J10" s="5">
         <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-      <c r="J10" s="5">
-        <f t="shared" si="6"/>
         <v>48</v>
       </c>
       <c r="K10" s="10" t="s">
@@ -1374,57 +1030,21 @@
       <c r="L10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M10">
-        <f>((118-30)/2+30)*2-E10</f>
-        <v>54</v>
-      </c>
-      <c r="N10">
-        <f>((118-30)/2+30)*2-F10</f>
-        <v>78</v>
-      </c>
-      <c r="O10">
-        <f>((118-30)/2+30)*2-G10</f>
-        <v>30</v>
-      </c>
-      <c r="P10" s="15">
-        <f t="shared" si="7"/>
-        <v>-24</v>
-      </c>
-      <c r="Q10" s="15">
-        <f t="shared" si="8"/>
-        <v>-24</v>
-      </c>
-      <c r="R10" s="16">
-        <f t="shared" si="9"/>
-        <v>48</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="10"/>
-        <v>24</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="11"/>
-        <v>24</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="12"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="21">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="21">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="C11" s="21">
+        <v>-16</v>
+      </c>
+      <c r="D11" s="22">
         <f t="shared" si="2"/>
-        <v>-16</v>
-      </c>
-      <c r="D11" s="22">
-        <f t="shared" si="3"/>
         <v>-24</v>
       </c>
       <c r="E11" s="5">
@@ -1439,15 +1059,15 @@
         <v>54</v>
       </c>
       <c r="H11" s="5">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="I11" s="5">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="I11" s="5">
+        <v>16</v>
+      </c>
+      <c r="J11" s="5">
         <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-      <c r="J11" s="5">
-        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="K11" s="10" t="s">
@@ -1456,57 +1076,21 @@
       <c r="L11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M11">
-        <f>((118-30)/2+30)*2-E11</f>
-        <v>110</v>
-      </c>
-      <c r="N11">
-        <f>((118-30)/2+30)*2-F11</f>
-        <v>118</v>
-      </c>
-      <c r="O11">
-        <f>((118-30)/2+30)*2-G11</f>
-        <v>94</v>
-      </c>
-      <c r="P11" s="15">
-        <f t="shared" si="7"/>
-        <v>-8</v>
-      </c>
-      <c r="Q11" s="15">
-        <f t="shared" si="8"/>
-        <v>-8</v>
-      </c>
-      <c r="R11" s="16">
-        <f t="shared" si="9"/>
-        <v>24</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="12"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="21">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C12" s="21">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="C12" s="21">
+        <v>-16</v>
+      </c>
+      <c r="D12" s="22">
         <f t="shared" si="2"/>
-        <v>-16</v>
-      </c>
-      <c r="D12" s="22">
-        <f t="shared" si="3"/>
         <v>-24</v>
       </c>
       <c r="E12" s="5">
@@ -1521,15 +1105,15 @@
         <v>94</v>
       </c>
       <c r="H12" s="5">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="I12" s="5">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="I12" s="5">
+        <v>16</v>
+      </c>
+      <c r="J12" s="5">
         <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-      <c r="J12" s="5">
-        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="K12" s="10" t="s">
@@ -1538,57 +1122,21 @@
       <c r="L12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M12">
-        <f>((118-30)/2+30)*2-E12</f>
-        <v>70</v>
-      </c>
-      <c r="N12">
-        <f>((118-30)/2+30)*2-F12</f>
-        <v>78</v>
-      </c>
-      <c r="O12">
-        <f>((118-30)/2+30)*2-G12</f>
-        <v>54</v>
-      </c>
-      <c r="P12" s="15">
-        <f t="shared" si="7"/>
-        <v>-8</v>
-      </c>
-      <c r="Q12" s="15">
-        <f t="shared" si="8"/>
-        <v>-8</v>
-      </c>
-      <c r="R12" s="16">
-        <f t="shared" si="9"/>
-        <v>24</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="12"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="21">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C13" s="21">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="C13" s="21">
+        <v>-16</v>
+      </c>
+      <c r="D13" s="22">
         <f t="shared" si="2"/>
-        <v>-16</v>
-      </c>
-      <c r="D13" s="22">
-        <f t="shared" si="3"/>
         <v>-24</v>
       </c>
       <c r="E13" s="5">
@@ -1603,15 +1151,15 @@
         <v>118</v>
       </c>
       <c r="H13" s="5">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="I13" s="5">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="I13" s="5">
+        <v>16</v>
+      </c>
+      <c r="J13" s="5">
         <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-      <c r="J13" s="5">
-        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="K13" s="10" t="s">
@@ -1620,57 +1168,21 @@
       <c r="L13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M13">
-        <f>((118-30)/2+30)*2-E13</f>
-        <v>46</v>
-      </c>
-      <c r="N13">
-        <f>((118-30)/2+30)*2-F13</f>
-        <v>54</v>
-      </c>
-      <c r="O13">
-        <f>((118-30)/2+30)*2-G13</f>
-        <v>30</v>
-      </c>
-      <c r="P13" s="15">
-        <f t="shared" si="7"/>
-        <v>-8</v>
-      </c>
-      <c r="Q13" s="15">
-        <f t="shared" si="8"/>
-        <v>-8</v>
-      </c>
-      <c r="R13" s="16">
-        <f t="shared" si="9"/>
-        <v>24</v>
-      </c>
-      <c r="S13">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="U13">
-        <f t="shared" si="12"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="23">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C14" s="23">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="C14" s="23">
+        <v>-8</v>
+      </c>
+      <c r="D14" s="24">
         <f t="shared" si="2"/>
-        <v>-8</v>
-      </c>
-      <c r="D14" s="24">
-        <f t="shared" si="3"/>
         <v>-24</v>
       </c>
       <c r="E14" s="5">
@@ -1685,15 +1197,15 @@
         <v>54</v>
       </c>
       <c r="H14" s="5">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="I14" s="5">
         <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="I14" s="5">
+        <v>8</v>
+      </c>
+      <c r="J14" s="5">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="J14" s="5">
-        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="K14" s="10" t="s">
@@ -1702,57 +1214,21 @@
       <c r="L14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M14">
-        <f>((118-30)/2+30)*2-E14</f>
-        <v>102</v>
-      </c>
-      <c r="N14">
-        <f>((118-30)/2+30)*2-F14</f>
-        <v>118</v>
-      </c>
-      <c r="O14">
-        <f>((118-30)/2+30)*2-G14</f>
-        <v>94</v>
-      </c>
-      <c r="P14" s="15">
-        <f t="shared" si="7"/>
-        <v>-16</v>
-      </c>
-      <c r="Q14" s="15">
-        <f t="shared" si="8"/>
-        <v>-16</v>
-      </c>
-      <c r="R14" s="16">
-        <f t="shared" si="9"/>
-        <v>24</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="10"/>
-        <v>16</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="11"/>
-        <v>16</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="12"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="23">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C15" s="23">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="C15" s="23">
+        <v>-8</v>
+      </c>
+      <c r="D15" s="24">
         <f t="shared" si="2"/>
-        <v>-8</v>
-      </c>
-      <c r="D15" s="24">
-        <f t="shared" si="3"/>
         <v>-24</v>
       </c>
       <c r="E15" s="5">
@@ -1767,15 +1243,15 @@
         <v>86</v>
       </c>
       <c r="H15" s="5">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="I15" s="5">
         <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="I15" s="5">
+        <v>8</v>
+      </c>
+      <c r="J15" s="5">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="J15" s="5">
-        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="K15" s="10" t="s">
@@ -1784,57 +1260,21 @@
       <c r="L15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M15">
-        <f>((118-30)/2+30)*2-E15</f>
-        <v>70</v>
-      </c>
-      <c r="N15">
-        <f>((118-30)/2+30)*2-F15</f>
-        <v>86</v>
-      </c>
-      <c r="O15">
-        <f>((118-30)/2+30)*2-G15</f>
-        <v>62</v>
-      </c>
-      <c r="P15" s="15">
-        <f t="shared" si="7"/>
-        <v>-16</v>
-      </c>
-      <c r="Q15" s="15">
-        <f t="shared" si="8"/>
-        <v>-16</v>
-      </c>
-      <c r="R15" s="16">
-        <f t="shared" si="9"/>
-        <v>24</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="10"/>
-        <v>16</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="11"/>
-        <v>16</v>
-      </c>
-      <c r="U15">
-        <f t="shared" si="12"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="23">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C16" s="23">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="C16" s="23">
+        <v>-8</v>
+      </c>
+      <c r="D16" s="24">
         <f t="shared" si="2"/>
-        <v>-8</v>
-      </c>
-      <c r="D16" s="24">
-        <f t="shared" si="3"/>
         <v>-24</v>
       </c>
       <c r="E16" s="5">
@@ -1849,15 +1289,15 @@
         <v>118</v>
       </c>
       <c r="H16" s="5">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="I16" s="5">
         <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="I16" s="5">
+        <v>8</v>
+      </c>
+      <c r="J16" s="5">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="J16" s="5">
-        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="K16" s="10" t="s">
@@ -1866,57 +1306,21 @@
       <c r="L16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M16">
-        <f>((118-30)/2+30)*2-E16</f>
-        <v>38</v>
-      </c>
-      <c r="N16">
-        <f>((118-30)/2+30)*2-F16</f>
-        <v>54</v>
-      </c>
-      <c r="O16">
-        <f>((118-30)/2+30)*2-G16</f>
-        <v>30</v>
-      </c>
-      <c r="P16" s="15">
-        <f t="shared" si="7"/>
-        <v>-16</v>
-      </c>
-      <c r="Q16" s="15">
-        <f t="shared" si="8"/>
-        <v>-16</v>
-      </c>
-      <c r="R16" s="16">
-        <f t="shared" si="9"/>
-        <v>24</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="10"/>
-        <v>16</v>
-      </c>
-      <c r="T16">
-        <f t="shared" si="11"/>
-        <v>16</v>
-      </c>
-      <c r="U16">
-        <f t="shared" si="12"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="25">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C17" s="25">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="C17" s="25">
+        <v>-24</v>
+      </c>
+      <c r="D17" s="26">
         <f t="shared" si="2"/>
-        <v>-24</v>
-      </c>
-      <c r="D17" s="26">
-        <f t="shared" si="3"/>
         <v>-40</v>
       </c>
       <c r="E17" s="5">
@@ -1931,15 +1335,15 @@
         <v>70</v>
       </c>
       <c r="H17" s="5">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="I17" s="5">
         <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="I17" s="5">
+        <v>24</v>
+      </c>
+      <c r="J17" s="5">
         <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-      <c r="J17" s="5">
-        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="K17" s="10" t="s">
@@ -1948,57 +1352,21 @@
       <c r="L17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M17">
-        <f>((118-30)/2+30)*2-E17</f>
-        <v>102</v>
-      </c>
-      <c r="N17">
-        <f>((118-30)/2+30)*2-F17</f>
-        <v>118</v>
-      </c>
-      <c r="O17">
-        <f>((118-30)/2+30)*2-G17</f>
-        <v>78</v>
-      </c>
-      <c r="P17" s="15">
-        <f t="shared" si="7"/>
-        <v>-16</v>
-      </c>
-      <c r="Q17" s="15">
-        <f t="shared" si="8"/>
-        <v>-16</v>
-      </c>
-      <c r="R17" s="16">
-        <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="S17">
-        <f t="shared" si="10"/>
-        <v>16</v>
-      </c>
-      <c r="T17">
-        <f t="shared" si="11"/>
-        <v>16</v>
-      </c>
-      <c r="U17">
-        <f t="shared" si="12"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="25">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C18" s="25">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="C18" s="25">
+        <v>-24</v>
+      </c>
+      <c r="D18" s="26">
         <f t="shared" si="2"/>
-        <v>-24</v>
-      </c>
-      <c r="D18" s="26">
-        <f t="shared" si="3"/>
         <v>-40</v>
       </c>
       <c r="E18" s="5">
@@ -2013,15 +1381,15 @@
         <v>102</v>
       </c>
       <c r="H18" s="5">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="I18" s="5">
         <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="I18" s="5">
+        <v>24</v>
+      </c>
+      <c r="J18" s="5">
         <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-      <c r="J18" s="5">
-        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="K18" s="10" t="s">
@@ -2030,57 +1398,21 @@
       <c r="L18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M18">
-        <f>((118-30)/2+30)*2-E18</f>
-        <v>70</v>
-      </c>
-      <c r="N18">
-        <f>((118-30)/2+30)*2-F18</f>
-        <v>86</v>
-      </c>
-      <c r="O18">
-        <f>((118-30)/2+30)*2-G18</f>
-        <v>46</v>
-      </c>
-      <c r="P18" s="15">
-        <f t="shared" si="7"/>
-        <v>-16</v>
-      </c>
-      <c r="Q18" s="15">
-        <f t="shared" si="8"/>
-        <v>-16</v>
-      </c>
-      <c r="R18" s="16">
-        <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="S18">
-        <f t="shared" si="10"/>
-        <v>16</v>
-      </c>
-      <c r="T18">
-        <f t="shared" si="11"/>
-        <v>16</v>
-      </c>
-      <c r="U18">
-        <f t="shared" si="12"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="25">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C19" s="25">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="C19" s="25">
+        <v>-24</v>
+      </c>
+      <c r="D19" s="26">
         <f t="shared" si="2"/>
-        <v>-24</v>
-      </c>
-      <c r="D19" s="26">
-        <f t="shared" si="3"/>
         <v>-40</v>
       </c>
       <c r="E19" s="5">
@@ -2095,15 +1427,15 @@
         <v>118</v>
       </c>
       <c r="H19" s="5">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="I19" s="5">
         <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="I19" s="5">
+        <v>24</v>
+      </c>
+      <c r="J19" s="5">
         <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-      <c r="J19" s="5">
-        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="K19" s="10" t="s">
@@ -2112,57 +1444,21 @@
       <c r="L19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M19">
-        <f>((118-30)/2+30)*2-E19</f>
-        <v>54</v>
-      </c>
-      <c r="N19">
-        <f>((118-30)/2+30)*2-F19</f>
-        <v>70</v>
-      </c>
-      <c r="O19">
-        <f>((118-30)/2+30)*2-G19</f>
-        <v>30</v>
-      </c>
-      <c r="P19" s="15">
-        <f t="shared" si="7"/>
-        <v>-16</v>
-      </c>
-      <c r="Q19" s="15">
-        <f t="shared" si="8"/>
-        <v>-16</v>
-      </c>
-      <c r="R19" s="16">
-        <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="S19">
-        <f t="shared" si="10"/>
-        <v>16</v>
-      </c>
-      <c r="T19">
-        <f t="shared" si="11"/>
-        <v>16</v>
-      </c>
-      <c r="U19">
-        <f t="shared" si="12"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C20" s="27">
         <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="C20" s="27">
+        <v>-16</v>
+      </c>
+      <c r="D20" s="28">
         <f t="shared" si="2"/>
-        <v>-16</v>
-      </c>
-      <c r="D20" s="28">
-        <f t="shared" si="3"/>
         <v>-40</v>
       </c>
       <c r="E20" s="5">
@@ -2177,15 +1473,15 @@
         <v>70</v>
       </c>
       <c r="H20" s="5">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="I20" s="5">
         <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="I20" s="5">
+        <v>16</v>
+      </c>
+      <c r="J20" s="5">
         <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-      <c r="J20" s="5">
-        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="K20" s="10" t="s">
@@ -2194,57 +1490,21 @@
       <c r="L20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M20">
-        <f>((118-30)/2+30)*2-E20</f>
-        <v>94</v>
-      </c>
-      <c r="N20">
-        <f>((118-30)/2+30)*2-F20</f>
-        <v>118</v>
-      </c>
-      <c r="O20">
-        <f>((118-30)/2+30)*2-G20</f>
-        <v>78</v>
-      </c>
-      <c r="P20" s="15">
-        <f t="shared" si="7"/>
-        <v>-24</v>
-      </c>
-      <c r="Q20" s="15">
-        <f t="shared" si="8"/>
-        <v>-24</v>
-      </c>
-      <c r="R20" s="16">
-        <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="S20">
-        <f t="shared" si="10"/>
-        <v>24</v>
-      </c>
-      <c r="T20">
-        <f t="shared" si="11"/>
-        <v>24</v>
-      </c>
-      <c r="U20">
-        <f t="shared" si="12"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C21" s="27">
         <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="C21" s="27">
+        <v>-16</v>
+      </c>
+      <c r="D21" s="28">
         <f t="shared" si="2"/>
-        <v>-16</v>
-      </c>
-      <c r="D21" s="28">
-        <f t="shared" si="3"/>
         <v>-40</v>
       </c>
       <c r="E21" s="5">
@@ -2259,15 +1519,15 @@
         <v>94</v>
       </c>
       <c r="H21" s="5">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="I21" s="5">
         <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="I21" s="5">
+        <v>16</v>
+      </c>
+      <c r="J21" s="5">
         <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-      <c r="J21" s="5">
-        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="K21" s="10" t="s">
@@ -2276,57 +1536,21 @@
       <c r="L21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M21">
-        <f>((118-30)/2+30)*2-E21</f>
-        <v>70</v>
-      </c>
-      <c r="N21">
-        <f>((118-30)/2+30)*2-F21</f>
-        <v>94</v>
-      </c>
-      <c r="O21">
-        <f>((118-30)/2+30)*2-G21</f>
-        <v>54</v>
-      </c>
-      <c r="P21" s="15">
-        <f t="shared" si="7"/>
-        <v>-24</v>
-      </c>
-      <c r="Q21" s="15">
-        <f t="shared" si="8"/>
-        <v>-24</v>
-      </c>
-      <c r="R21" s="16">
-        <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="S21">
-        <f t="shared" si="10"/>
-        <v>24</v>
-      </c>
-      <c r="T21">
-        <f t="shared" si="11"/>
-        <v>24</v>
-      </c>
-      <c r="U21">
-        <f t="shared" si="12"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C22" s="27">
         <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="C22" s="27">
+        <v>-16</v>
+      </c>
+      <c r="D22" s="28">
         <f t="shared" si="2"/>
-        <v>-16</v>
-      </c>
-      <c r="D22" s="28">
-        <f t="shared" si="3"/>
         <v>-40</v>
       </c>
       <c r="E22" s="5">
@@ -2341,15 +1565,15 @@
         <v>118</v>
       </c>
       <c r="H22" s="5">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="I22" s="5">
         <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="I22" s="5">
+        <v>16</v>
+      </c>
+      <c r="J22" s="5">
         <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-      <c r="J22" s="5">
-        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="K22" s="10" t="s">
@@ -2358,57 +1582,21 @@
       <c r="L22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M22">
-        <f>((118-30)/2+30)*2-E22</f>
-        <v>46</v>
-      </c>
-      <c r="N22">
-        <f>((118-30)/2+30)*2-F22</f>
-        <v>70</v>
-      </c>
-      <c r="O22">
-        <f>((118-30)/2+30)*2-G22</f>
-        <v>30</v>
-      </c>
-      <c r="P22" s="15">
-        <f t="shared" si="7"/>
-        <v>-24</v>
-      </c>
-      <c r="Q22" s="15">
-        <f t="shared" si="8"/>
-        <v>-24</v>
-      </c>
-      <c r="R22" s="16">
-        <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="S22">
-        <f t="shared" si="10"/>
-        <v>24</v>
-      </c>
-      <c r="T22">
-        <f t="shared" si="11"/>
-        <v>24</v>
-      </c>
-      <c r="U22">
-        <f t="shared" si="12"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="29">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C23" s="29">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="C23" s="29">
+        <v>-24</v>
+      </c>
+      <c r="D23" s="30">
         <f t="shared" si="2"/>
-        <v>-24</v>
-      </c>
-      <c r="D23" s="30">
-        <f t="shared" si="3"/>
         <v>-32</v>
       </c>
       <c r="E23" s="5">
@@ -2423,15 +1611,15 @@
         <v>62</v>
       </c>
       <c r="H23" s="5">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="I23" s="5">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="I23" s="5">
+        <v>24</v>
+      </c>
+      <c r="J23" s="5">
         <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-      <c r="J23" s="5">
-        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="K23" s="10" t="s">
@@ -2440,57 +1628,21 @@
       <c r="L23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M23">
-        <f>((118-30)/2+30)*2-E23</f>
-        <v>110</v>
-      </c>
-      <c r="N23">
-        <f>((118-30)/2+30)*2-F23</f>
-        <v>118</v>
-      </c>
-      <c r="O23">
-        <f>((118-30)/2+30)*2-G23</f>
-        <v>86</v>
-      </c>
-      <c r="P23" s="15">
-        <f t="shared" si="7"/>
-        <v>-8</v>
-      </c>
-      <c r="Q23" s="15">
-        <f t="shared" si="8"/>
-        <v>-8</v>
-      </c>
-      <c r="R23" s="16">
-        <f t="shared" si="9"/>
-        <v>32</v>
-      </c>
-      <c r="S23">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="T23">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="U23">
-        <f t="shared" si="12"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="29">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C24" s="29">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="C24" s="29">
+        <v>-24</v>
+      </c>
+      <c r="D24" s="30">
         <f t="shared" si="2"/>
-        <v>-24</v>
-      </c>
-      <c r="D24" s="30">
-        <f t="shared" si="3"/>
         <v>-32</v>
       </c>
       <c r="E24" s="5">
@@ -2505,15 +1657,15 @@
         <v>102</v>
       </c>
       <c r="H24" s="5">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="I24" s="5">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="I24" s="5">
+        <v>24</v>
+      </c>
+      <c r="J24" s="5">
         <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-      <c r="J24" s="5">
-        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="K24" s="10" t="s">
@@ -2522,57 +1674,21 @@
       <c r="L24" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M24">
-        <f>((118-30)/2+30)*2-E24</f>
-        <v>70</v>
-      </c>
-      <c r="N24">
-        <f>((118-30)/2+30)*2-F24</f>
-        <v>78</v>
-      </c>
-      <c r="O24">
-        <f>((118-30)/2+30)*2-G24</f>
-        <v>46</v>
-      </c>
-      <c r="P24" s="15">
-        <f t="shared" si="7"/>
-        <v>-8</v>
-      </c>
-      <c r="Q24" s="15">
-        <f t="shared" si="8"/>
-        <v>-8</v>
-      </c>
-      <c r="R24" s="16">
-        <f t="shared" si="9"/>
-        <v>32</v>
-      </c>
-      <c r="S24">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="T24">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="U24">
-        <f t="shared" si="12"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="29">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C25" s="29">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="C25" s="29">
+        <v>-24</v>
+      </c>
+      <c r="D25" s="30">
         <f t="shared" si="2"/>
-        <v>-24</v>
-      </c>
-      <c r="D25" s="30">
-        <f t="shared" si="3"/>
         <v>-32</v>
       </c>
       <c r="E25" s="5">
@@ -2587,15 +1703,15 @@
         <v>118</v>
       </c>
       <c r="H25" s="5">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="I25" s="5">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="I25" s="5">
+        <v>24</v>
+      </c>
+      <c r="J25" s="5">
         <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-      <c r="J25" s="5">
-        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="K25" s="10" t="s">
@@ -2604,57 +1720,21 @@
       <c r="L25" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M25">
-        <f>((118-30)/2+30)*2-E25</f>
-        <v>54</v>
-      </c>
-      <c r="N25">
-        <f>((118-30)/2+30)*2-F25</f>
-        <v>62</v>
-      </c>
-      <c r="O25">
-        <f>((118-30)/2+30)*2-G25</f>
-        <v>30</v>
-      </c>
-      <c r="P25" s="15">
-        <f t="shared" si="7"/>
-        <v>-8</v>
-      </c>
-      <c r="Q25" s="15">
-        <f t="shared" si="8"/>
-        <v>-8</v>
-      </c>
-      <c r="R25" s="16">
-        <f t="shared" si="9"/>
-        <v>32</v>
-      </c>
-      <c r="S25">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="T25">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="U25">
-        <f t="shared" si="12"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="31">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="31">
         <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="C26" s="31">
+        <v>-8</v>
+      </c>
+      <c r="D26" s="32">
         <f t="shared" si="2"/>
-        <v>-8</v>
-      </c>
-      <c r="D26" s="32">
-        <f t="shared" si="3"/>
         <v>-32</v>
       </c>
       <c r="E26" s="5">
@@ -2669,15 +1749,15 @@
         <v>62</v>
       </c>
       <c r="H26" s="5">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="I26" s="5">
         <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="I26" s="5">
+        <v>8</v>
+      </c>
+      <c r="J26" s="5">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="J26" s="5">
-        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="K26" s="10" t="s">
@@ -2686,57 +1766,21 @@
       <c r="L26" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M26">
-        <f>((118-30)/2+30)*2-E26</f>
-        <v>94</v>
-      </c>
-      <c r="N26">
-        <f>((118-30)/2+30)*2-F26</f>
-        <v>118</v>
-      </c>
-      <c r="O26">
-        <f>((118-30)/2+30)*2-G26</f>
-        <v>86</v>
-      </c>
-      <c r="P26" s="15">
-        <f t="shared" si="7"/>
-        <v>-24</v>
-      </c>
-      <c r="Q26" s="15">
-        <f t="shared" si="8"/>
-        <v>-24</v>
-      </c>
-      <c r="R26" s="16">
-        <f t="shared" si="9"/>
-        <v>32</v>
-      </c>
-      <c r="S26">
-        <f t="shared" si="10"/>
-        <v>24</v>
-      </c>
-      <c r="T26">
-        <f t="shared" si="11"/>
-        <v>24</v>
-      </c>
-      <c r="U26">
-        <f t="shared" si="12"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="31">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C27" s="31">
         <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="C27" s="31">
+        <v>-8</v>
+      </c>
+      <c r="D27" s="32">
         <f t="shared" si="2"/>
-        <v>-8</v>
-      </c>
-      <c r="D27" s="32">
-        <f t="shared" si="3"/>
         <v>-32</v>
       </c>
       <c r="E27" s="5">
@@ -2751,15 +1795,15 @@
         <v>86</v>
       </c>
       <c r="H27" s="5">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="I27" s="5">
         <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="I27" s="5">
+        <v>8</v>
+      </c>
+      <c r="J27" s="5">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="J27" s="5">
-        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="K27" s="10" t="s">
@@ -2768,57 +1812,21 @@
       <c r="L27" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M27">
-        <f>((118-30)/2+30)*2-E27</f>
-        <v>70</v>
-      </c>
-      <c r="N27">
-        <f>((118-30)/2+30)*2-F27</f>
-        <v>94</v>
-      </c>
-      <c r="O27">
-        <f>((118-30)/2+30)*2-G27</f>
-        <v>62</v>
-      </c>
-      <c r="P27" s="15">
-        <f t="shared" si="7"/>
-        <v>-24</v>
-      </c>
-      <c r="Q27" s="15">
-        <f t="shared" si="8"/>
-        <v>-24</v>
-      </c>
-      <c r="R27" s="16">
-        <f t="shared" si="9"/>
-        <v>32</v>
-      </c>
-      <c r="S27">
-        <f t="shared" si="10"/>
-        <v>24</v>
-      </c>
-      <c r="T27">
-        <f t="shared" si="11"/>
-        <v>24</v>
-      </c>
-      <c r="U27">
-        <f t="shared" si="12"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B28" s="31">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C28" s="31">
         <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="C28" s="31">
+        <v>-8</v>
+      </c>
+      <c r="D28" s="32">
         <f t="shared" si="2"/>
-        <v>-8</v>
-      </c>
-      <c r="D28" s="32">
-        <f t="shared" si="3"/>
         <v>-32</v>
       </c>
       <c r="E28" s="5">
@@ -2833,15 +1841,15 @@
         <v>118</v>
       </c>
       <c r="H28" s="5">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="I28" s="5">
         <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="I28" s="5">
+        <v>8</v>
+      </c>
+      <c r="J28" s="5">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="J28" s="5">
-        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="K28" s="10" t="s">
@@ -2850,57 +1858,21 @@
       <c r="L28" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M28">
-        <f>((118-30)/2+30)*2-E28</f>
-        <v>38</v>
-      </c>
-      <c r="N28">
-        <f>((118-30)/2+30)*2-F28</f>
-        <v>62</v>
-      </c>
-      <c r="O28">
-        <f>((118-30)/2+30)*2-G28</f>
-        <v>30</v>
-      </c>
-      <c r="P28" s="15">
-        <f t="shared" si="7"/>
-        <v>-24</v>
-      </c>
-      <c r="Q28" s="15">
-        <f t="shared" si="8"/>
-        <v>-24</v>
-      </c>
-      <c r="R28" s="16">
-        <f t="shared" si="9"/>
-        <v>32</v>
-      </c>
-      <c r="S28">
-        <f t="shared" si="10"/>
-        <v>24</v>
-      </c>
-      <c r="T28">
-        <f t="shared" si="11"/>
-        <v>24</v>
-      </c>
-      <c r="U28">
-        <f t="shared" si="12"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B29" s="4">
-        <f t="shared" ref="B29:B38" si="19">F29-E29</f>
+        <f t="shared" ref="B29:B38" si="12">F29-E29</f>
         <v>-8</v>
       </c>
       <c r="C29" s="4">
-        <f t="shared" ref="C29:C38" si="20">F29-G29</f>
+        <f t="shared" ref="C29:C38" si="13">F29-G29</f>
         <v>-72</v>
       </c>
       <c r="D29" s="5">
-        <f t="shared" ref="D29:D38" si="21">E29-G29</f>
+        <f t="shared" ref="D29:D38" si="14">E29-G29</f>
         <v>-64</v>
       </c>
       <c r="E29" s="4">
@@ -2913,15 +1885,15 @@
         <v>110</v>
       </c>
       <c r="H29" s="5">
-        <f t="shared" ref="H29:H38" si="22">ABS(B29)</f>
+        <f t="shared" ref="H29:H38" si="15">ABS(B29)</f>
         <v>8</v>
       </c>
       <c r="I29" s="5">
-        <f t="shared" ref="I29:I38" si="23">ABS(C29)</f>
+        <f t="shared" ref="I29:I38" si="16">ABS(C29)</f>
         <v>72</v>
       </c>
       <c r="J29" s="5">
-        <f t="shared" ref="J29:J38" si="24">ABS(D29)</f>
+        <f t="shared" ref="J29:J38" si="17">ABS(D29)</f>
         <v>64</v>
       </c>
       <c r="K29" s="10" t="s">
@@ -2930,57 +1902,21 @@
       <c r="L29" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M29">
-        <f>((118-30)/2+30)*2-E29</f>
-        <v>102</v>
-      </c>
-      <c r="N29">
-        <f>((118-30)/2+30)*2-F29</f>
-        <v>110</v>
-      </c>
-      <c r="O29">
-        <f>((118-30)/2+30)*2-G29</f>
-        <v>38</v>
-      </c>
-      <c r="P29" s="15">
-        <f t="shared" si="7"/>
-        <v>-8</v>
-      </c>
-      <c r="Q29" s="15">
-        <f t="shared" si="8"/>
-        <v>-8</v>
-      </c>
-      <c r="R29" s="16">
-        <f t="shared" si="9"/>
-        <v>72</v>
-      </c>
-      <c r="S29">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="T29">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="U29">
-        <f t="shared" si="12"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>-8</v>
       </c>
       <c r="C30" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>-80</v>
       </c>
       <c r="D30" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>-72</v>
       </c>
       <c r="E30" s="4">
@@ -2993,15 +1929,15 @@
         <v>110</v>
       </c>
       <c r="H30" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="I30" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v>80</v>
       </c>
       <c r="J30" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>72</v>
       </c>
       <c r="K30" s="10" t="s">
@@ -3010,57 +1946,21 @@
       <c r="L30" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M30">
-        <f>((118-30)/2+30)*2-E30</f>
-        <v>110</v>
-      </c>
-      <c r="N30">
-        <f>((118-30)/2+30)*2-F30</f>
-        <v>118</v>
-      </c>
-      <c r="O30">
-        <f>((118-30)/2+30)*2-G30</f>
-        <v>38</v>
-      </c>
-      <c r="P30" s="15">
-        <f t="shared" si="7"/>
-        <v>-8</v>
-      </c>
-      <c r="Q30" s="15">
-        <f t="shared" si="8"/>
-        <v>-8</v>
-      </c>
-      <c r="R30" s="16">
-        <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="S30">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="T30">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="U30">
-        <f t="shared" si="12"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B31" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>-16</v>
       </c>
       <c r="C31" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>-80</v>
       </c>
       <c r="D31" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>-64</v>
       </c>
       <c r="E31" s="4">
@@ -3073,15 +1973,15 @@
         <v>110</v>
       </c>
       <c r="H31" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="I31" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v>80</v>
       </c>
       <c r="J31" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>64</v>
       </c>
       <c r="K31" s="10" t="s">
@@ -3090,57 +1990,21 @@
       <c r="L31" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M31">
-        <f>((118-30)/2+30)*2-E31</f>
-        <v>102</v>
-      </c>
-      <c r="N31">
-        <f>((118-30)/2+30)*2-F31</f>
-        <v>118</v>
-      </c>
-      <c r="O31">
-        <f>((118-30)/2+30)*2-G31</f>
-        <v>38</v>
-      </c>
-      <c r="P31" s="15">
-        <f t="shared" si="7"/>
-        <v>-16</v>
-      </c>
-      <c r="Q31" s="15">
-        <f t="shared" si="8"/>
-        <v>-16</v>
-      </c>
-      <c r="R31" s="16">
-        <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="S31">
-        <f t="shared" si="10"/>
-        <v>16</v>
-      </c>
-      <c r="T31">
-        <f t="shared" si="11"/>
-        <v>16</v>
-      </c>
-      <c r="U31">
-        <f t="shared" si="12"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>-72</v>
       </c>
       <c r="C32" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>-80</v>
       </c>
       <c r="D32" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>-8</v>
       </c>
       <c r="E32" s="4">
@@ -3153,15 +2017,15 @@
         <v>118</v>
       </c>
       <c r="H32" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>72</v>
       </c>
       <c r="I32" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v>80</v>
       </c>
       <c r="J32" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="K32" s="10" t="s">
@@ -3170,57 +2034,21 @@
       <c r="L32" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M32">
-        <f>((118-30)/2+30)*2-E32</f>
-        <v>38</v>
-      </c>
-      <c r="N32">
-        <f>((118-30)/2+30)*2-F32</f>
-        <v>110</v>
-      </c>
-      <c r="O32">
-        <f>((118-30)/2+30)*2-G32</f>
-        <v>30</v>
-      </c>
-      <c r="P32" s="15">
-        <f t="shared" si="7"/>
-        <v>-72</v>
-      </c>
-      <c r="Q32" s="15">
-        <f t="shared" si="8"/>
-        <v>-72</v>
-      </c>
-      <c r="R32" s="16">
-        <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="S32">
-        <f t="shared" si="10"/>
-        <v>72</v>
-      </c>
-      <c r="T32">
-        <f t="shared" si="11"/>
-        <v>72</v>
-      </c>
-      <c r="U32">
-        <f t="shared" si="12"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B33" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>-16</v>
       </c>
       <c r="C33" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>-32</v>
       </c>
       <c r="D33" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>-16</v>
       </c>
       <c r="E33" s="4">
@@ -3233,15 +2061,15 @@
         <v>62</v>
       </c>
       <c r="H33" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="I33" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v>32</v>
       </c>
       <c r="J33" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>16</v>
       </c>
       <c r="K33" s="10" t="s">
@@ -3250,57 +2078,21 @@
       <c r="L33" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M33">
-        <f>((118-30)/2+30)*2-E33</f>
-        <v>102</v>
-      </c>
-      <c r="N33">
-        <f>((118-30)/2+30)*2-F33</f>
-        <v>118</v>
-      </c>
-      <c r="O33">
-        <f>((118-30)/2+30)*2-G33</f>
-        <v>86</v>
-      </c>
-      <c r="P33" s="15">
-        <f t="shared" si="7"/>
-        <v>-16</v>
-      </c>
-      <c r="Q33" s="15">
-        <f t="shared" si="8"/>
-        <v>-16</v>
-      </c>
-      <c r="R33" s="16">
-        <f t="shared" si="9"/>
-        <v>32</v>
-      </c>
-      <c r="S33">
-        <f t="shared" si="10"/>
-        <v>16</v>
-      </c>
-      <c r="T33">
-        <f t="shared" si="11"/>
-        <v>16</v>
-      </c>
-      <c r="U33">
-        <f t="shared" si="12"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B34" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>-72</v>
       </c>
       <c r="C34" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>-80</v>
       </c>
       <c r="D34" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>-8</v>
       </c>
       <c r="E34" s="4">
@@ -3313,15 +2105,15 @@
         <v>118</v>
       </c>
       <c r="H34" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>72</v>
       </c>
       <c r="I34" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v>80</v>
       </c>
       <c r="J34" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="K34" s="10" t="s">
@@ -3330,57 +2122,21 @@
       <c r="L34" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M34">
-        <f>((118-30)/2+30)*2-E34</f>
-        <v>38</v>
-      </c>
-      <c r="N34">
-        <f>((118-30)/2+30)*2-F34</f>
-        <v>110</v>
-      </c>
-      <c r="O34">
-        <f>((118-30)/2+30)*2-G34</f>
-        <v>30</v>
-      </c>
-      <c r="P34" s="15">
-        <f t="shared" si="7"/>
-        <v>-72</v>
-      </c>
-      <c r="Q34" s="15">
-        <f t="shared" si="8"/>
-        <v>-72</v>
-      </c>
-      <c r="R34" s="16">
-        <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="S34">
-        <f t="shared" si="10"/>
-        <v>72</v>
-      </c>
-      <c r="T34">
-        <f t="shared" si="11"/>
-        <v>72</v>
-      </c>
-      <c r="U34">
-        <f t="shared" si="12"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B35" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>-16</v>
       </c>
       <c r="C35" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>-56</v>
       </c>
       <c r="D35" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>-40</v>
       </c>
       <c r="E35" s="4">
@@ -3393,15 +2149,15 @@
         <v>102</v>
       </c>
       <c r="H35" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="I35" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v>56</v>
       </c>
       <c r="J35" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>40</v>
       </c>
       <c r="K35" s="10" t="s">
@@ -3410,57 +2166,21 @@
       <c r="L35" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M35">
-        <f>((118-30)/2+30)*2-E35</f>
-        <v>86</v>
-      </c>
-      <c r="N35">
-        <f>((118-30)/2+30)*2-F35</f>
-        <v>102</v>
-      </c>
-      <c r="O35">
-        <f>((118-30)/2+30)*2-G35</f>
-        <v>46</v>
-      </c>
-      <c r="P35" s="15">
-        <f t="shared" si="7"/>
-        <v>-16</v>
-      </c>
-      <c r="Q35" s="15">
-        <f t="shared" si="8"/>
-        <v>-16</v>
-      </c>
-      <c r="R35" s="16">
-        <f t="shared" si="9"/>
-        <v>56</v>
-      </c>
-      <c r="S35">
-        <f t="shared" si="10"/>
-        <v>16</v>
-      </c>
-      <c r="T35">
-        <f t="shared" si="11"/>
-        <v>16</v>
-      </c>
-      <c r="U35">
-        <f t="shared" si="12"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B36" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>-48</v>
       </c>
       <c r="C36" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>-80</v>
       </c>
       <c r="D36" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>-32</v>
       </c>
       <c r="E36" s="4">
@@ -3473,15 +2193,15 @@
         <v>118</v>
       </c>
       <c r="H36" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>48</v>
       </c>
       <c r="I36" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v>80</v>
       </c>
       <c r="J36" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>32</v>
       </c>
       <c r="K36" s="10" t="s">
@@ -3490,57 +2210,21 @@
       <c r="L36" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M36">
-        <f>((118-30)/2+30)*2-E36</f>
-        <v>62</v>
-      </c>
-      <c r="N36">
-        <f>((118-30)/2+30)*2-F36</f>
-        <v>110</v>
-      </c>
-      <c r="O36">
-        <f>((118-30)/2+30)*2-G36</f>
-        <v>30</v>
-      </c>
-      <c r="P36" s="15">
-        <f t="shared" si="7"/>
-        <v>-48</v>
-      </c>
-      <c r="Q36" s="15">
-        <f t="shared" si="8"/>
-        <v>-48</v>
-      </c>
-      <c r="R36" s="16">
-        <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="S36">
-        <f t="shared" si="10"/>
-        <v>48</v>
-      </c>
-      <c r="T36">
-        <f t="shared" si="11"/>
-        <v>48</v>
-      </c>
-      <c r="U36">
-        <f t="shared" si="12"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B37" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>-24</v>
       </c>
       <c r="C37" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>-56</v>
       </c>
       <c r="D37" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>-32</v>
       </c>
       <c r="E37" s="4">
@@ -3553,15 +2237,15 @@
         <v>102</v>
       </c>
       <c r="H37" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
       <c r="I37" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v>56</v>
       </c>
       <c r="J37" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>32</v>
       </c>
       <c r="K37" s="10" t="s">
@@ -3570,57 +2254,21 @@
       <c r="L37" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M37">
-        <f>((118-30)/2+30)*2-E37</f>
-        <v>78</v>
-      </c>
-      <c r="N37">
-        <f>((118-30)/2+30)*2-F37</f>
-        <v>102</v>
-      </c>
-      <c r="O37">
-        <f>((118-30)/2+30)*2-G37</f>
-        <v>46</v>
-      </c>
-      <c r="P37" s="15">
-        <f t="shared" si="7"/>
-        <v>-24</v>
-      </c>
-      <c r="Q37" s="15">
-        <f t="shared" si="8"/>
-        <v>-24</v>
-      </c>
-      <c r="R37" s="16">
-        <f t="shared" si="9"/>
-        <v>56</v>
-      </c>
-      <c r="S37">
-        <f t="shared" si="10"/>
-        <v>24</v>
-      </c>
-      <c r="T37">
-        <f t="shared" si="11"/>
-        <v>24</v>
-      </c>
-      <c r="U37">
-        <f t="shared" si="12"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B38" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>-32</v>
       </c>
       <c r="C38" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>-88</v>
       </c>
       <c r="D38" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>-56</v>
       </c>
       <c r="E38" s="4">
@@ -3633,15 +2281,15 @@
         <v>118</v>
       </c>
       <c r="H38" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>32</v>
       </c>
       <c r="I38" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v>88</v>
       </c>
       <c r="J38" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>56</v>
       </c>
       <c r="K38" s="10" t="s">
@@ -3650,44 +2298,8 @@
       <c r="L38" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M38">
-        <f t="shared" ref="M38" si="25">((118-30)/2+30)*2-E38</f>
-        <v>86</v>
-      </c>
-      <c r="N38">
-        <f t="shared" ref="N38" si="26">((118-30)/2+30)*2-F38</f>
-        <v>118</v>
-      </c>
-      <c r="O38">
-        <f t="shared" ref="O38" si="27">((118-30)/2+30)*2-G38</f>
-        <v>30</v>
-      </c>
-      <c r="P38" s="15">
-        <f t="shared" si="7"/>
-        <v>-32</v>
-      </c>
-      <c r="Q38" s="15">
-        <f t="shared" si="8"/>
-        <v>-32</v>
-      </c>
-      <c r="R38" s="16">
-        <f t="shared" si="9"/>
-        <v>88</v>
-      </c>
-      <c r="S38">
-        <f t="shared" si="10"/>
-        <v>32</v>
-      </c>
-      <c r="T38">
-        <f t="shared" si="11"/>
-        <v>32</v>
-      </c>
-      <c r="U38">
-        <f t="shared" si="12"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -3701,7 +2313,7 @@
       <c r="K39" s="10"/>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -3715,7 +2327,7 @@
       <c r="K40" s="10"/>
       <c r="L40" s="5"/>
     </row>
-    <row r="41" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -3729,7 +2341,7 @@
       <c r="K41" s="10"/>
       <c r="L41" s="5"/>
     </row>
-    <row r="42" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -3743,7 +2355,7 @@
       <c r="K42" s="10"/>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -3757,7 +2369,7 @@
       <c r="K43" s="10"/>
       <c r="L43" s="5"/>
     </row>
-    <row r="44" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -3771,7 +2383,7 @@
       <c r="K44" s="10"/>
       <c r="L44" s="5"/>
     </row>
-    <row r="45" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -3785,7 +2397,7 @@
       <c r="K45" s="10"/>
       <c r="L45" s="5"/>
     </row>
-    <row r="46" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -3799,7 +2411,7 @@
       <c r="K46" s="10"/>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -3813,7 +2425,7 @@
       <c r="K47" s="10"/>
       <c r="L47" s="5"/>
     </row>
-    <row r="48" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>

--- a/docs/choosing_triplets.xlsx
+++ b/docs/choosing_triplets.xlsx
@@ -561,9 +561,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="B29" s="4">
         <f t="shared" ref="B29:B38" si="12">F29-E29</f>
-        <v>-8</v>
+        <v>-40</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" ref="C29:C38" si="13">F29-G29</f>
@@ -1873,20 +1873,20 @@
       </c>
       <c r="D29" s="5">
         <f t="shared" ref="D29:D38" si="14">E29-G29</f>
-        <v>-64</v>
+        <v>-32</v>
       </c>
       <c r="E29" s="4">
+        <v>86</v>
+      </c>
+      <c r="F29" s="4">
         <v>46</v>
       </c>
-      <c r="F29" s="4">
-        <v>38</v>
-      </c>
       <c r="G29" s="4">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="H29" s="5">
         <f t="shared" ref="H29:H38" si="15">ABS(B29)</f>
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="I29" s="5">
         <f t="shared" ref="I29:I38" si="16">ABS(C29)</f>
@@ -1894,7 +1894,7 @@
       </c>
       <c r="J29" s="5">
         <f t="shared" ref="J29:J38" si="17">ABS(D29)</f>
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="K29" s="10" t="s">
         <v>10</v>
@@ -1909,36 +1909,36 @@
       </c>
       <c r="B30" s="4">
         <f t="shared" si="12"/>
-        <v>-8</v>
+        <v>-24</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" si="13"/>
-        <v>-80</v>
+        <v>-64</v>
       </c>
       <c r="D30" s="5">
         <f t="shared" si="14"/>
-        <v>-72</v>
+        <v>-40</v>
       </c>
       <c r="E30" s="4">
+        <v>62</v>
+      </c>
+      <c r="F30" s="4">
         <v>38</v>
       </c>
-      <c r="F30" s="4">
-        <v>30</v>
-      </c>
       <c r="G30" s="4">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H30" s="5">
         <f t="shared" si="15"/>
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I30" s="5">
         <f t="shared" si="16"/>
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="J30" s="5">
         <f t="shared" si="17"/>
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="K30" s="10" t="s">
         <v>10</v>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="B31" s="4">
         <f t="shared" si="12"/>
-        <v>-16</v>
+        <v>-32</v>
       </c>
       <c r="C31" s="4">
         <f t="shared" si="13"/>
@@ -1961,10 +1961,10 @@
       </c>
       <c r="D31" s="5">
         <f t="shared" si="14"/>
-        <v>-64</v>
+        <v>-48</v>
       </c>
       <c r="E31" s="4">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="F31" s="4">
         <v>30</v>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="H31" s="5">
         <f t="shared" si="15"/>
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I31" s="5">
         <f t="shared" si="16"/>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="J31" s="5">
         <f t="shared" si="17"/>
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="K31" s="10" t="s">
         <v>10</v>
@@ -1997,32 +1997,32 @@
       </c>
       <c r="B32" s="4">
         <f t="shared" si="12"/>
-        <v>-72</v>
+        <v>-8</v>
       </c>
       <c r="C32" s="4">
         <f t="shared" si="13"/>
-        <v>-80</v>
+        <v>-16</v>
       </c>
       <c r="D32" s="5">
         <f t="shared" si="14"/>
         <v>-8</v>
       </c>
       <c r="E32" s="4">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="F32" s="4">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G32" s="4">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="H32" s="5">
         <f t="shared" si="15"/>
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="I32" s="5">
         <f t="shared" si="16"/>
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="J32" s="5">
         <f t="shared" si="17"/>
@@ -2041,36 +2041,36 @@
       </c>
       <c r="B33" s="4">
         <f t="shared" si="12"/>
-        <v>-16</v>
+        <v>-8</v>
       </c>
       <c r="C33" s="4">
         <f t="shared" si="13"/>
-        <v>-32</v>
+        <v>-72</v>
       </c>
       <c r="D33" s="5">
         <f t="shared" si="14"/>
-        <v>-16</v>
+        <v>-64</v>
       </c>
       <c r="E33" s="4">
         <v>46</v>
       </c>
       <c r="F33" s="4">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G33" s="4">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="H33" s="5">
         <f t="shared" si="15"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I33" s="5">
         <f t="shared" si="16"/>
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="J33" s="5">
         <f t="shared" si="17"/>
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="K33" s="10" t="s">
         <v>10</v>
@@ -2085,11 +2085,11 @@
       </c>
       <c r="B34" s="4">
         <f t="shared" si="12"/>
-        <v>-72</v>
+        <v>-8</v>
       </c>
       <c r="C34" s="4">
         <f t="shared" si="13"/>
-        <v>-80</v>
+        <v>-16</v>
       </c>
       <c r="D34" s="5">
         <f t="shared" si="14"/>
@@ -2099,18 +2099,18 @@
         <v>110</v>
       </c>
       <c r="F34" s="4">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="G34" s="4">
         <v>118</v>
       </c>
       <c r="H34" s="5">
         <f t="shared" si="15"/>
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="I34" s="5">
         <f t="shared" si="16"/>
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="J34" s="5">
         <f t="shared" si="17"/>
@@ -2129,36 +2129,36 @@
       </c>
       <c r="B35" s="4">
         <f t="shared" si="12"/>
-        <v>-16</v>
+        <v>-8</v>
       </c>
       <c r="C35" s="4">
         <f t="shared" si="13"/>
-        <v>-56</v>
+        <v>-24</v>
       </c>
       <c r="D35" s="5">
         <f t="shared" si="14"/>
-        <v>-40</v>
+        <v>-16</v>
       </c>
       <c r="E35" s="4">
+        <v>46</v>
+      </c>
+      <c r="F35" s="4">
+        <v>38</v>
+      </c>
+      <c r="G35" s="4">
         <v>62</v>
-      </c>
-      <c r="F35" s="4">
-        <v>46</v>
-      </c>
-      <c r="G35" s="4">
-        <v>102</v>
       </c>
       <c r="H35" s="5">
         <f t="shared" si="15"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I35" s="5">
         <f t="shared" si="16"/>
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="J35" s="5">
         <f t="shared" si="17"/>
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="K35" s="10" t="s">
         <v>10</v>
@@ -2173,7 +2173,7 @@
       </c>
       <c r="B36" s="4">
         <f t="shared" si="12"/>
-        <v>-48</v>
+        <v>-72</v>
       </c>
       <c r="C36" s="4">
         <f t="shared" si="13"/>
@@ -2181,10 +2181,10 @@
       </c>
       <c r="D36" s="5">
         <f t="shared" si="14"/>
-        <v>-32</v>
+        <v>-8</v>
       </c>
       <c r="E36" s="4">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="F36" s="4">
         <v>38</v>
@@ -2194,7 +2194,7 @@
       </c>
       <c r="H36" s="5">
         <f t="shared" si="15"/>
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="I36" s="5">
         <f t="shared" si="16"/>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="J36" s="5">
         <f t="shared" si="17"/>
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="K36" s="10" t="s">
         <v>10</v>
@@ -2217,36 +2217,36 @@
       </c>
       <c r="B37" s="4">
         <f t="shared" si="12"/>
-        <v>-24</v>
+        <v>-16</v>
       </c>
       <c r="C37" s="4">
         <f t="shared" si="13"/>
-        <v>-56</v>
+        <v>-80</v>
       </c>
       <c r="D37" s="5">
         <f t="shared" si="14"/>
-        <v>-32</v>
+        <v>-64</v>
       </c>
       <c r="E37" s="4">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="F37" s="4">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G37" s="4">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="H37" s="5">
         <f t="shared" si="15"/>
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I37" s="5">
         <f t="shared" si="16"/>
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="J37" s="5">
         <f t="shared" si="17"/>
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="K37" s="10" t="s">
         <v>10</v>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B38" s="4">
         <f t="shared" si="12"/>
-        <v>-32</v>
+        <v>-40</v>
       </c>
       <c r="C38" s="4">
         <f t="shared" si="13"/>
@@ -2269,10 +2269,10 @@
       </c>
       <c r="D38" s="5">
         <f t="shared" si="14"/>
-        <v>-56</v>
+        <v>-48</v>
       </c>
       <c r="E38" s="4">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F38" s="4">
         <v>30</v>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="H38" s="5">
         <f t="shared" si="15"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I38" s="5">
         <f t="shared" si="16"/>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="J38" s="5">
         <f t="shared" si="17"/>
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="K38" s="10" t="s">
         <v>10</v>

--- a/docs/choosing_triplets.xlsx
+++ b/docs/choosing_triplets.xlsx
@@ -563,7 +563,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomLeft" activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1864,16 +1864,16 @@
         <v>17</v>
       </c>
       <c r="B29" s="4">
-        <f t="shared" ref="B29:B38" si="12">F29-E29</f>
+        <f>F29-E29</f>
         <v>-40</v>
       </c>
       <c r="C29" s="4">
-        <f t="shared" ref="C29:C38" si="13">F29-G29</f>
+        <f>E29-G29</f>
+        <v>-32</v>
+      </c>
+      <c r="D29" s="5">
+        <f>F29-G29</f>
         <v>-72</v>
-      </c>
-      <c r="D29" s="5">
-        <f t="shared" ref="D29:D38" si="14">E29-G29</f>
-        <v>-32</v>
       </c>
       <c r="E29" s="4">
         <v>86</v>
@@ -1885,16 +1885,16 @@
         <v>118</v>
       </c>
       <c r="H29" s="5">
-        <f t="shared" ref="H29:H38" si="15">ABS(B29)</f>
+        <f>ABS(B29)</f>
         <v>40</v>
       </c>
       <c r="I29" s="5">
-        <f t="shared" ref="I29:I38" si="16">ABS(C29)</f>
+        <f>ABS(C29)</f>
+        <v>32</v>
+      </c>
+      <c r="J29" s="5">
+        <f>ABS(D29)</f>
         <v>72</v>
-      </c>
-      <c r="J29" s="5">
-        <f t="shared" ref="J29:J38" si="17">ABS(D29)</f>
-        <v>32</v>
       </c>
       <c r="K29" s="10" t="s">
         <v>10</v>
@@ -1908,16 +1908,16 @@
         <v>17</v>
       </c>
       <c r="B30" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="B30:B38" si="12">F30-E30</f>
         <v>-24</v>
       </c>
       <c r="C30" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="C30:C38" si="13">E30-G30</f>
+        <v>-40</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" ref="D30:D38" si="14">F30-G30</f>
         <v>-64</v>
-      </c>
-      <c r="D30" s="5">
-        <f t="shared" si="14"/>
-        <v>-40</v>
       </c>
       <c r="E30" s="4">
         <v>62</v>
@@ -1929,16 +1929,16 @@
         <v>102</v>
       </c>
       <c r="H30" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="H30:H38" si="15">ABS(B30)</f>
         <v>24</v>
       </c>
       <c r="I30" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="I30:I38" si="16">ABS(C30)</f>
+        <v>40</v>
+      </c>
+      <c r="J30" s="5">
+        <f t="shared" ref="J30:J38" si="17">ABS(D30)</f>
         <v>64</v>
-      </c>
-      <c r="J30" s="5">
-        <f t="shared" si="17"/>
-        <v>40</v>
       </c>
       <c r="K30" s="10" t="s">
         <v>10</v>
@@ -1957,11 +1957,11 @@
       </c>
       <c r="C31" s="4">
         <f t="shared" si="13"/>
-        <v>-80</v>
+        <v>-48</v>
       </c>
       <c r="D31" s="5">
         <f t="shared" si="14"/>
-        <v>-48</v>
+        <v>-80</v>
       </c>
       <c r="E31" s="4">
         <v>62</v>
@@ -1978,11 +1978,11 @@
       </c>
       <c r="I31" s="5">
         <f t="shared" si="16"/>
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="J31" s="5">
         <f t="shared" si="17"/>
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="K31" s="10" t="s">
         <v>10</v>
@@ -2001,11 +2001,11 @@
       </c>
       <c r="C32" s="4">
         <f t="shared" si="13"/>
-        <v>-16</v>
+        <v>-8</v>
       </c>
       <c r="D32" s="5">
         <f t="shared" si="14"/>
-        <v>-8</v>
+        <v>-16</v>
       </c>
       <c r="E32" s="4">
         <v>38</v>
@@ -2022,11 +2022,11 @@
       </c>
       <c r="I32" s="5">
         <f t="shared" si="16"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J32" s="5">
         <f t="shared" si="17"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K32" s="10" t="s">
         <v>10</v>
@@ -2045,11 +2045,11 @@
       </c>
       <c r="C33" s="4">
         <f t="shared" si="13"/>
-        <v>-72</v>
+        <v>-64</v>
       </c>
       <c r="D33" s="5">
         <f t="shared" si="14"/>
-        <v>-64</v>
+        <v>-72</v>
       </c>
       <c r="E33" s="4">
         <v>46</v>
@@ -2066,11 +2066,11 @@
       </c>
       <c r="I33" s="5">
         <f t="shared" si="16"/>
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J33" s="5">
         <f t="shared" si="17"/>
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="K33" s="10" t="s">
         <v>10</v>
@@ -2089,11 +2089,11 @@
       </c>
       <c r="C34" s="4">
         <f t="shared" si="13"/>
-        <v>-16</v>
+        <v>-8</v>
       </c>
       <c r="D34" s="5">
         <f t="shared" si="14"/>
-        <v>-8</v>
+        <v>-16</v>
       </c>
       <c r="E34" s="4">
         <v>110</v>
@@ -2110,11 +2110,11 @@
       </c>
       <c r="I34" s="5">
         <f t="shared" si="16"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J34" s="5">
         <f t="shared" si="17"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K34" s="10" t="s">
         <v>10</v>
@@ -2133,11 +2133,11 @@
       </c>
       <c r="C35" s="4">
         <f t="shared" si="13"/>
-        <v>-24</v>
+        <v>-16</v>
       </c>
       <c r="D35" s="5">
         <f t="shared" si="14"/>
-        <v>-16</v>
+        <v>-24</v>
       </c>
       <c r="E35" s="4">
         <v>46</v>
@@ -2154,11 +2154,11 @@
       </c>
       <c r="I35" s="5">
         <f t="shared" si="16"/>
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J35" s="5">
         <f t="shared" si="17"/>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K35" s="10" t="s">
         <v>10</v>
@@ -2177,11 +2177,11 @@
       </c>
       <c r="C36" s="4">
         <f t="shared" si="13"/>
-        <v>-80</v>
+        <v>-8</v>
       </c>
       <c r="D36" s="5">
         <f t="shared" si="14"/>
-        <v>-8</v>
+        <v>-80</v>
       </c>
       <c r="E36" s="4">
         <v>110</v>
@@ -2198,11 +2198,11 @@
       </c>
       <c r="I36" s="5">
         <f t="shared" si="16"/>
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="J36" s="5">
         <f t="shared" si="17"/>
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="K36" s="10" t="s">
         <v>10</v>
@@ -2221,11 +2221,11 @@
       </c>
       <c r="C37" s="4">
         <f t="shared" si="13"/>
-        <v>-80</v>
+        <v>-64</v>
       </c>
       <c r="D37" s="5">
         <f t="shared" si="14"/>
-        <v>-64</v>
+        <v>-80</v>
       </c>
       <c r="E37" s="4">
         <v>46</v>
@@ -2242,11 +2242,11 @@
       </c>
       <c r="I37" s="5">
         <f t="shared" si="16"/>
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="J37" s="5">
         <f t="shared" si="17"/>
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="K37" s="10" t="s">
         <v>10</v>
@@ -2265,11 +2265,11 @@
       </c>
       <c r="C38" s="4">
         <f t="shared" si="13"/>
-        <v>-88</v>
+        <v>-48</v>
       </c>
       <c r="D38" s="5">
         <f t="shared" si="14"/>
-        <v>-48</v>
+        <v>-88</v>
       </c>
       <c r="E38" s="4">
         <v>70</v>
@@ -2286,11 +2286,11 @@
       </c>
       <c r="I38" s="5">
         <f t="shared" si="16"/>
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="J38" s="5">
         <f t="shared" si="17"/>
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K38" s="10" t="s">
         <v>10</v>

--- a/docs/choosing_triplets.xlsx
+++ b/docs/choosing_triplets.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lb08\GitHub\density_2_analysis\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levan\GitHub\density_2_analysis\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8DC42B-5F75-4657-9022-CF7C44350935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4170" yWindow="12180" windowWidth="23250" windowHeight="12570" tabRatio="358"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="358" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$A$1:$L$94</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,6 +31,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="16">
   <si>
     <t>simulation name</t>
   </si>
@@ -86,17 +88,11 @@
   <si>
     <t>regular</t>
   </si>
-  <si>
-    <t>practice</t>
-  </si>
-  <si>
-    <t>balancing</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -558,12 +554,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J36" sqref="J36"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,15 +676,15 @@
         <v>-16</v>
       </c>
       <c r="E3" s="5">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F3" s="13">
         <f>E3-Sheet2!$B$1</f>
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G3" s="13">
         <f>E3+Sheet2!$B$1</f>
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H3" s="5">
         <f t="shared" ref="H3:H28" si="3">ABS(B3)</f>
@@ -726,15 +722,15 @@
         <v>-16</v>
       </c>
       <c r="E4" s="5">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F4" s="13">
         <f>E4-Sheet2!$B$1</f>
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G4" s="13">
         <f>E4+Sheet2!$B$1</f>
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H4" s="5">
         <f t="shared" si="3"/>
@@ -818,15 +814,15 @@
         <v>-32</v>
       </c>
       <c r="E6" s="5">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F6" s="13">
         <f>E6-Sheet2!$B$1*2</f>
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G6" s="13">
         <f>E6+Sheet2!$B$1*2</f>
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" si="3"/>
@@ -864,15 +860,16 @@
         <v>-32</v>
       </c>
       <c r="E7" s="5">
-        <v>102</v>
+        <f>102-8</f>
+        <v>94</v>
       </c>
       <c r="F7" s="13">
         <f>E7-Sheet2!$B$1*2</f>
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G7" s="13">
         <f>E7+Sheet2!$B$1*2</f>
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="3"/>
@@ -956,15 +953,15 @@
         <v>-48</v>
       </c>
       <c r="E9" s="5">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F9" s="13">
         <f>E9-Sheet2!$B$1*3</f>
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G9" s="13">
         <f>E9+Sheet2!$B$1*3</f>
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="3"/>
@@ -1002,15 +999,15 @@
         <v>-48</v>
       </c>
       <c r="E10" s="5">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F10" s="13">
         <f>E10-Sheet2!$B$1*3</f>
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G10" s="13">
         <f>E10+Sheet2!$B$1*3</f>
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" si="3"/>
@@ -1094,15 +1091,15 @@
         <v>-24</v>
       </c>
       <c r="E12" s="5">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F12" s="13">
         <f>E12-Sheet2!$B$1*1</f>
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G12" s="13">
         <f>E12+Sheet2!$B$1*2</f>
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="3"/>
@@ -1140,15 +1137,15 @@
         <v>-24</v>
       </c>
       <c r="E13" s="5">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F13" s="13">
         <f>E13-Sheet2!$B$1*1</f>
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G13" s="13">
         <f>E13+Sheet2!$B$1*2</f>
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" si="3"/>
@@ -1232,15 +1229,15 @@
         <v>-24</v>
       </c>
       <c r="E15" s="5">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F15" s="13">
         <f>E15-Sheet2!$B$1*2</f>
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G15" s="13">
         <f>E15+Sheet2!$B$1*1</f>
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" si="3"/>
@@ -1278,15 +1275,15 @@
         <v>-24</v>
       </c>
       <c r="E16" s="5">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F16" s="13">
         <f>E16-Sheet2!$B$1*2</f>
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G16" s="13">
         <f>E16+Sheet2!$B$1*1</f>
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="3"/>
@@ -1370,15 +1367,15 @@
         <v>-40</v>
       </c>
       <c r="E18" s="5">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F18" s="13">
         <f>E18-Sheet2!$B$1*2</f>
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G18" s="13">
         <f>E18+Sheet2!$B$1*3</f>
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="H18" s="5">
         <f t="shared" si="3"/>
@@ -1416,15 +1413,15 @@
         <v>-40</v>
       </c>
       <c r="E19" s="5">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F19" s="13">
         <f>E19-Sheet2!$B$1*2</f>
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G19" s="13">
         <f>E19+Sheet2!$B$1*3</f>
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" si="3"/>
@@ -1508,15 +1505,15 @@
         <v>-40</v>
       </c>
       <c r="E21" s="5">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F21" s="13">
         <f>E21-Sheet2!$B$1*3</f>
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G21" s="13">
         <f>E21+Sheet2!$B$1*2</f>
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H21" s="5">
         <f t="shared" si="3"/>
@@ -1554,15 +1551,15 @@
         <v>-40</v>
       </c>
       <c r="E22" s="5">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F22" s="13">
         <f>E22-Sheet2!$B$1*3</f>
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G22" s="13">
         <f>E22+Sheet2!$B$1*2</f>
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H22" s="5">
         <f t="shared" si="3"/>
@@ -1646,15 +1643,15 @@
         <v>-32</v>
       </c>
       <c r="E24" s="5">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F24" s="13">
         <f>E24-Sheet2!$B$1*1</f>
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G24" s="13">
         <f>E24+Sheet2!$B$1*3</f>
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="H24" s="5">
         <f t="shared" si="3"/>
@@ -1692,15 +1689,15 @@
         <v>-32</v>
       </c>
       <c r="E25" s="5">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F25" s="13">
         <f>E25-Sheet2!$B$1*1</f>
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G25" s="13">
         <f>E25+Sheet2!$B$1*3</f>
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H25" s="5">
         <f t="shared" si="3"/>
@@ -1784,15 +1781,15 @@
         <v>-32</v>
       </c>
       <c r="E27" s="5">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F27" s="13">
         <f>E27-Sheet2!$B$1*3</f>
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G27" s="13">
         <f>E27+Sheet2!$B$1*1</f>
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H27" s="5">
         <f t="shared" si="3"/>
@@ -1830,15 +1827,15 @@
         <v>-32</v>
       </c>
       <c r="E28" s="5">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F28" s="13">
         <f>E28-Sheet2!$B$1*3</f>
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G28" s="13">
         <f>E28+Sheet2!$B$1*1</f>
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H28" s="5">
         <f t="shared" si="3"/>
@@ -1860,444 +1857,144 @@
       </c>
     </row>
     <row r="29" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="4">
-        <f>F29-E29</f>
-        <v>-40</v>
-      </c>
-      <c r="C29" s="4">
-        <f>E29-G29</f>
-        <v>-32</v>
-      </c>
-      <c r="D29" s="5">
-        <f>F29-G29</f>
-        <v>-72</v>
-      </c>
-      <c r="E29" s="4">
-        <v>86</v>
-      </c>
-      <c r="F29" s="4">
-        <v>46</v>
-      </c>
-      <c r="G29" s="4">
-        <v>118</v>
-      </c>
-      <c r="H29" s="5">
-        <f>ABS(B29)</f>
-        <v>40</v>
-      </c>
-      <c r="I29" s="5">
-        <f>ABS(C29)</f>
-        <v>32</v>
-      </c>
-      <c r="J29" s="5">
-        <f>ABS(D29)</f>
-        <v>72</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="5"/>
     </row>
     <row r="30" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="4">
-        <f t="shared" ref="B30:B38" si="12">F30-E30</f>
-        <v>-24</v>
-      </c>
-      <c r="C30" s="4">
-        <f t="shared" ref="C30:C38" si="13">E30-G30</f>
-        <v>-40</v>
-      </c>
-      <c r="D30" s="5">
-        <f t="shared" ref="D30:D38" si="14">F30-G30</f>
-        <v>-64</v>
-      </c>
-      <c r="E30" s="4">
-        <v>62</v>
-      </c>
-      <c r="F30" s="4">
-        <v>38</v>
-      </c>
-      <c r="G30" s="4">
-        <v>102</v>
-      </c>
-      <c r="H30" s="5">
-        <f t="shared" ref="H30:H38" si="15">ABS(B30)</f>
-        <v>24</v>
-      </c>
-      <c r="I30" s="5">
-        <f t="shared" ref="I30:I38" si="16">ABS(C30)</f>
-        <v>40</v>
-      </c>
-      <c r="J30" s="5">
-        <f t="shared" ref="J30:J38" si="17">ABS(D30)</f>
-        <v>64</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="5"/>
     </row>
     <row r="31" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="4">
-        <f t="shared" si="12"/>
-        <v>-32</v>
-      </c>
-      <c r="C31" s="4">
-        <f t="shared" si="13"/>
-        <v>-48</v>
-      </c>
-      <c r="D31" s="5">
-        <f t="shared" si="14"/>
-        <v>-80</v>
-      </c>
-      <c r="E31" s="4">
-        <v>62</v>
-      </c>
-      <c r="F31" s="4">
-        <v>30</v>
-      </c>
-      <c r="G31" s="4">
-        <v>110</v>
-      </c>
-      <c r="H31" s="5">
-        <f t="shared" si="15"/>
-        <v>32</v>
-      </c>
-      <c r="I31" s="5">
-        <f t="shared" si="16"/>
-        <v>48</v>
-      </c>
-      <c r="J31" s="5">
-        <f t="shared" si="17"/>
-        <v>80</v>
-      </c>
-      <c r="K31" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="5"/>
     </row>
     <row r="32" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="4">
-        <f t="shared" si="12"/>
-        <v>-8</v>
-      </c>
-      <c r="C32" s="4">
-        <f t="shared" si="13"/>
-        <v>-8</v>
-      </c>
-      <c r="D32" s="5">
-        <f t="shared" si="14"/>
-        <v>-16</v>
-      </c>
-      <c r="E32" s="4">
-        <v>38</v>
-      </c>
-      <c r="F32" s="4">
-        <v>30</v>
-      </c>
-      <c r="G32" s="4">
-        <v>46</v>
-      </c>
-      <c r="H32" s="5">
-        <f t="shared" si="15"/>
-        <v>8</v>
-      </c>
-      <c r="I32" s="5">
-        <f t="shared" si="16"/>
-        <v>8</v>
-      </c>
-      <c r="J32" s="5">
-        <f t="shared" si="17"/>
-        <v>16</v>
-      </c>
-      <c r="K32" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="5"/>
     </row>
     <row r="33" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="4">
-        <f t="shared" si="12"/>
-        <v>-8</v>
-      </c>
-      <c r="C33" s="4">
-        <f t="shared" si="13"/>
-        <v>-64</v>
-      </c>
-      <c r="D33" s="5">
-        <f t="shared" si="14"/>
-        <v>-72</v>
-      </c>
-      <c r="E33" s="4">
-        <v>46</v>
-      </c>
-      <c r="F33" s="4">
-        <v>38</v>
-      </c>
-      <c r="G33" s="4">
-        <v>110</v>
-      </c>
-      <c r="H33" s="5">
-        <f t="shared" si="15"/>
-        <v>8</v>
-      </c>
-      <c r="I33" s="5">
-        <f t="shared" si="16"/>
-        <v>64</v>
-      </c>
-      <c r="J33" s="5">
-        <f t="shared" si="17"/>
-        <v>72</v>
-      </c>
-      <c r="K33" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="5"/>
     </row>
     <row r="34" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="4">
-        <f t="shared" si="12"/>
-        <v>-8</v>
-      </c>
-      <c r="C34" s="4">
-        <f t="shared" si="13"/>
-        <v>-8</v>
-      </c>
-      <c r="D34" s="5">
-        <f t="shared" si="14"/>
-        <v>-16</v>
-      </c>
-      <c r="E34" s="4">
-        <v>110</v>
-      </c>
-      <c r="F34" s="4">
-        <v>102</v>
-      </c>
-      <c r="G34" s="4">
-        <v>118</v>
-      </c>
-      <c r="H34" s="5">
-        <f t="shared" si="15"/>
-        <v>8</v>
-      </c>
-      <c r="I34" s="5">
-        <f t="shared" si="16"/>
-        <v>8</v>
-      </c>
-      <c r="J34" s="5">
-        <f t="shared" si="17"/>
-        <v>16</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A34" s="3"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="5"/>
     </row>
     <row r="35" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="4">
-        <f t="shared" si="12"/>
-        <v>-8</v>
-      </c>
-      <c r="C35" s="4">
-        <f t="shared" si="13"/>
-        <v>-16</v>
-      </c>
-      <c r="D35" s="5">
-        <f t="shared" si="14"/>
-        <v>-24</v>
-      </c>
-      <c r="E35" s="4">
-        <v>46</v>
-      </c>
-      <c r="F35" s="4">
-        <v>38</v>
-      </c>
-      <c r="G35" s="4">
-        <v>62</v>
-      </c>
-      <c r="H35" s="5">
-        <f t="shared" si="15"/>
-        <v>8</v>
-      </c>
-      <c r="I35" s="5">
-        <f t="shared" si="16"/>
-        <v>16</v>
-      </c>
-      <c r="J35" s="5">
-        <f t="shared" si="17"/>
-        <v>24</v>
-      </c>
-      <c r="K35" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A35" s="3"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="5"/>
     </row>
     <row r="36" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="4">
-        <f t="shared" si="12"/>
-        <v>-72</v>
-      </c>
-      <c r="C36" s="4">
-        <f t="shared" si="13"/>
-        <v>-8</v>
-      </c>
-      <c r="D36" s="5">
-        <f t="shared" si="14"/>
-        <v>-80</v>
-      </c>
-      <c r="E36" s="4">
-        <v>110</v>
-      </c>
-      <c r="F36" s="4">
-        <v>38</v>
-      </c>
-      <c r="G36" s="4">
-        <v>118</v>
-      </c>
-      <c r="H36" s="5">
-        <f t="shared" si="15"/>
-        <v>72</v>
-      </c>
-      <c r="I36" s="5">
-        <f t="shared" si="16"/>
-        <v>8</v>
-      </c>
-      <c r="J36" s="5">
-        <f t="shared" si="17"/>
-        <v>80</v>
-      </c>
-      <c r="K36" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A36" s="3"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="5"/>
     </row>
     <row r="37" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="4">
-        <f t="shared" si="12"/>
-        <v>-16</v>
-      </c>
-      <c r="C37" s="4">
-        <f t="shared" si="13"/>
-        <v>-64</v>
-      </c>
-      <c r="D37" s="5">
-        <f t="shared" si="14"/>
-        <v>-80</v>
-      </c>
-      <c r="E37" s="4">
-        <v>46</v>
-      </c>
-      <c r="F37" s="4">
-        <v>30</v>
-      </c>
-      <c r="G37" s="4">
-        <v>110</v>
-      </c>
-      <c r="H37" s="5">
-        <f t="shared" si="15"/>
-        <v>16</v>
-      </c>
-      <c r="I37" s="5">
-        <f t="shared" si="16"/>
-        <v>64</v>
-      </c>
-      <c r="J37" s="5">
-        <f t="shared" si="17"/>
-        <v>80</v>
-      </c>
-      <c r="K37" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L37" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="5"/>
     </row>
     <row r="38" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="4">
-        <f t="shared" si="12"/>
-        <v>-40</v>
-      </c>
-      <c r="C38" s="4">
-        <f t="shared" si="13"/>
-        <v>-48</v>
-      </c>
-      <c r="D38" s="5">
-        <f t="shared" si="14"/>
-        <v>-88</v>
-      </c>
-      <c r="E38" s="4">
-        <v>70</v>
-      </c>
-      <c r="F38" s="4">
-        <v>30</v>
-      </c>
-      <c r="G38" s="4">
-        <v>118</v>
-      </c>
-      <c r="H38" s="5">
-        <f t="shared" si="15"/>
-        <v>40</v>
-      </c>
-      <c r="I38" s="5">
-        <f t="shared" si="16"/>
-        <v>48</v>
-      </c>
-      <c r="J38" s="5">
-        <f t="shared" si="17"/>
-        <v>88</v>
-      </c>
-      <c r="K38" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L38" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="5"/>
     </row>
     <row r="39" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
@@ -3077,14 +2774,14 @@
       <c r="L94" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L94"/>
+  <autoFilter ref="A1:L94" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/docs/choosing_triplets.xlsx
+++ b/docs/choosing_triplets.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levan\GitHub\density_2_analysis\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lb08\GitHub\density_2_analysis\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8DC42B-5F75-4657-9022-CF7C44350935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="358" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19320" windowHeight="10380" tabRatio="358"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$A$1:$L$94</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="18">
   <si>
     <t>simulation name</t>
   </si>
@@ -88,11 +87,17 @@
   <si>
     <t>regular</t>
   </si>
+  <si>
+    <t>balancing</t>
+  </si>
+  <si>
+    <t>practice</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -554,12 +559,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1857,144 +1862,444 @@
       </c>
     </row>
     <row r="29" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="5"/>
+      <c r="A29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="4">
+        <f t="shared" ref="B29:B38" si="12">E29-F29</f>
+        <v>8</v>
+      </c>
+      <c r="C29" s="4">
+        <f t="shared" ref="C29:C38" si="13">E29-G29</f>
+        <v>-72</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" ref="D29:D38" si="14">F29-G29</f>
+        <v>-80</v>
+      </c>
+      <c r="E29" s="4">
+        <v>38</v>
+      </c>
+      <c r="F29" s="4">
+        <v>30</v>
+      </c>
+      <c r="G29" s="4">
+        <v>110</v>
+      </c>
+      <c r="H29" s="5">
+        <f t="shared" ref="H29:H38" si="15">ABS(B29)</f>
+        <v>8</v>
+      </c>
+      <c r="I29" s="5">
+        <f t="shared" ref="I29:I38" si="16">ABS(C29)</f>
+        <v>72</v>
+      </c>
+      <c r="J29" s="5">
+        <f t="shared" ref="J29:J38" si="17">ABS(D29)</f>
+        <v>80</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="30" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="5"/>
+      <c r="A30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="4">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="C30" s="4">
+        <f t="shared" si="13"/>
+        <v>-64</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" si="14"/>
+        <v>-72</v>
+      </c>
+      <c r="E30" s="4">
+        <v>38</v>
+      </c>
+      <c r="F30" s="4">
+        <v>30</v>
+      </c>
+      <c r="G30" s="4">
+        <v>102</v>
+      </c>
+      <c r="H30" s="5">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="I30" s="5">
+        <f t="shared" si="16"/>
+        <v>64</v>
+      </c>
+      <c r="J30" s="5">
+        <f t="shared" si="17"/>
+        <v>72</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="31" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="5"/>
+      <c r="A31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="4">
+        <f t="shared" si="12"/>
+        <v>56</v>
+      </c>
+      <c r="C31" s="4">
+        <f t="shared" si="13"/>
+        <v>-16</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" si="14"/>
+        <v>-72</v>
+      </c>
+      <c r="E31" s="4">
+        <v>94</v>
+      </c>
+      <c r="F31" s="4">
+        <v>38</v>
+      </c>
+      <c r="G31" s="4">
+        <v>110</v>
+      </c>
+      <c r="H31" s="5">
+        <f t="shared" si="15"/>
+        <v>56</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" si="16"/>
+        <v>16</v>
+      </c>
+      <c r="J31" s="5">
+        <f t="shared" si="17"/>
+        <v>72</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="32" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="5"/>
+      <c r="A32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="4">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="C32" s="4">
+        <f t="shared" si="13"/>
+        <v>-16</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="14"/>
+        <v>-24</v>
+      </c>
+      <c r="E32" s="4">
+        <v>38</v>
+      </c>
+      <c r="F32" s="4">
+        <v>30</v>
+      </c>
+      <c r="G32" s="4">
+        <v>54</v>
+      </c>
+      <c r="H32" s="5">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="I32" s="5">
+        <f t="shared" si="16"/>
+        <v>16</v>
+      </c>
+      <c r="J32" s="5">
+        <f t="shared" si="17"/>
+        <v>24</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="33" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="5"/>
+      <c r="A33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="4">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="C33" s="4">
+        <f t="shared" si="13"/>
+        <v>-8</v>
+      </c>
+      <c r="D33" s="5">
+        <f t="shared" si="14"/>
+        <v>-24</v>
+      </c>
+      <c r="E33" s="4">
+        <v>102</v>
+      </c>
+      <c r="F33" s="4">
+        <v>86</v>
+      </c>
+      <c r="G33" s="4">
+        <v>110</v>
+      </c>
+      <c r="H33" s="5">
+        <f t="shared" si="15"/>
+        <v>16</v>
+      </c>
+      <c r="I33" s="5">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="J33" s="5">
+        <f t="shared" si="17"/>
+        <v>24</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="34" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="5"/>
+      <c r="A34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="4">
+        <f t="shared" si="12"/>
+        <v>32</v>
+      </c>
+      <c r="C34" s="4">
+        <f t="shared" si="13"/>
+        <v>-40</v>
+      </c>
+      <c r="D34" s="5">
+        <f t="shared" si="14"/>
+        <v>-72</v>
+      </c>
+      <c r="E34" s="4">
+        <v>62</v>
+      </c>
+      <c r="F34" s="4">
+        <v>30</v>
+      </c>
+      <c r="G34" s="4">
+        <v>102</v>
+      </c>
+      <c r="H34" s="5">
+        <f t="shared" si="15"/>
+        <v>32</v>
+      </c>
+      <c r="I34" s="5">
+        <f t="shared" si="16"/>
+        <v>40</v>
+      </c>
+      <c r="J34" s="5">
+        <f t="shared" si="17"/>
+        <v>72</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="35" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="5"/>
+      <c r="A35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="4">
+        <f t="shared" si="12"/>
+        <v>32</v>
+      </c>
+      <c r="C35" s="4">
+        <f t="shared" si="13"/>
+        <v>-32</v>
+      </c>
+      <c r="D35" s="5">
+        <f t="shared" si="14"/>
+        <v>-64</v>
+      </c>
+      <c r="E35" s="4">
+        <v>78</v>
+      </c>
+      <c r="F35" s="4">
+        <v>46</v>
+      </c>
+      <c r="G35" s="4">
+        <v>110</v>
+      </c>
+      <c r="H35" s="5">
+        <f t="shared" si="15"/>
+        <v>32</v>
+      </c>
+      <c r="I35" s="5">
+        <f t="shared" si="16"/>
+        <v>32</v>
+      </c>
+      <c r="J35" s="5">
+        <f t="shared" si="17"/>
+        <v>64</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="36" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="5"/>
+      <c r="A36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="4">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="C36" s="4">
+        <f t="shared" si="13"/>
+        <v>-8</v>
+      </c>
+      <c r="D36" s="5">
+        <f t="shared" si="14"/>
+        <v>-16</v>
+      </c>
+      <c r="E36" s="4">
+        <v>102</v>
+      </c>
+      <c r="F36" s="4">
+        <v>94</v>
+      </c>
+      <c r="G36" s="4">
+        <v>110</v>
+      </c>
+      <c r="H36" s="5">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="I36" s="5">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="J36" s="5">
+        <f t="shared" si="17"/>
+        <v>16</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="37" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="5"/>
+      <c r="A37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="4">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="C37" s="4">
+        <f t="shared" si="13"/>
+        <v>-64</v>
+      </c>
+      <c r="D37" s="5">
+        <f t="shared" si="14"/>
+        <v>-72</v>
+      </c>
+      <c r="E37" s="4">
+        <v>38</v>
+      </c>
+      <c r="F37" s="4">
+        <v>30</v>
+      </c>
+      <c r="G37" s="4">
+        <v>102</v>
+      </c>
+      <c r="H37" s="5">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="I37" s="5">
+        <f t="shared" si="16"/>
+        <v>64</v>
+      </c>
+      <c r="J37" s="5">
+        <f t="shared" si="17"/>
+        <v>72</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="38" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="5"/>
+      <c r="A38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="4">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="C38" s="4">
+        <f t="shared" si="13"/>
+        <v>-56</v>
+      </c>
+      <c r="D38" s="5">
+        <f t="shared" si="14"/>
+        <v>-64</v>
+      </c>
+      <c r="E38" s="4">
+        <v>46</v>
+      </c>
+      <c r="F38" s="4">
+        <v>38</v>
+      </c>
+      <c r="G38" s="4">
+        <v>102</v>
+      </c>
+      <c r="H38" s="5">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="I38" s="5">
+        <f t="shared" si="16"/>
+        <v>56</v>
+      </c>
+      <c r="J38" s="5">
+        <f t="shared" si="17"/>
+        <v>64</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="39" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
@@ -2774,14 +3079,14 @@
       <c r="L94" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L94" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L94"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
